--- a/biology/Botanique/Davalliaceae/Davalliaceae.xlsx
+++ b/biology/Botanique/Davalliaceae/Davalliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille Davalliaceae est un taxon botanique qui regroupe des fougères de l'ordre des Polypodiales.
 Davallia, genre le plus vaste de la famille, regroupe plusieurs espèces de fougères tropicales. Ce genre, comme la famille, doivent leur nom au botaniste anglo-helvétique, Edmund Davall (1763-1798).
@@ -512,9 +524,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (24 mai 2015)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 mai 2015) :
 Araiostegia
 Araiostegiella
 Davallia
